--- a/Code/Results/Cases/Case_1_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357352383317732</v>
+        <v>1.817988034783468</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1242902413936022</v>
+        <v>0.314190933387863</v>
       </c>
       <c r="E2">
-        <v>0.2970627584270389</v>
+        <v>0.3299995353571674</v>
       </c>
       <c r="F2">
-        <v>0.2739460078047884</v>
+        <v>0.9014183446607476</v>
       </c>
       <c r="G2">
-        <v>0.2367687489711017</v>
+        <v>0.3977407773541941</v>
       </c>
       <c r="H2">
-        <v>0.1922770925251882</v>
+        <v>0.5587468790071313</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5904840954053441</v>
+        <v>0.4508836976495445</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.418407575549509</v>
+        <v>0.8676421976201993</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8555218540967786</v>
+        <v>1.858221274558872</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931990149176386</v>
+        <v>1.682167639189515</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1265699472725288</v>
+        <v>0.3173200079630973</v>
       </c>
       <c r="E3">
-        <v>0.2785131838447015</v>
+        <v>0.3261452349320777</v>
       </c>
       <c r="F3">
-        <v>0.2787130905463968</v>
+        <v>0.9174211771114962</v>
       </c>
       <c r="G3">
-        <v>0.2188603312675426</v>
+        <v>0.4009651538374612</v>
       </c>
       <c r="H3">
-        <v>0.1910391734083561</v>
+        <v>0.5651110815936562</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5396257642959057</v>
+        <v>0.4367186947141164</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.105097169956622</v>
+        <v>0.7629942786872732</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8145395170409557</v>
+        <v>1.878068561783067</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.671461764944297</v>
+        <v>1.598625613031629</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1281948169807947</v>
+        <v>0.3194038750344177</v>
       </c>
       <c r="E4">
-        <v>0.2674198454827703</v>
+        <v>0.3239447747195001</v>
       </c>
       <c r="F4">
-        <v>0.2832217220472266</v>
+        <v>0.9280636962225586</v>
       </c>
       <c r="G4">
-        <v>0.2089526587422554</v>
+        <v>0.4034045781797957</v>
       </c>
       <c r="H4">
-        <v>0.1909484686680045</v>
+        <v>0.569395707108761</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5088292062686293</v>
+        <v>0.4282169067764983</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.912922808063627</v>
+        <v>0.6984489051218077</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7930737430356345</v>
+        <v>1.892007701312295</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.565409778732999</v>
+        <v>1.56454641203635</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1289126126138527</v>
+        <v>0.3202940530116862</v>
       </c>
       <c r="E5">
-        <v>0.262970412842833</v>
+        <v>0.323090093487572</v>
       </c>
       <c r="F5">
-        <v>0.2854360509232059</v>
+        <v>0.9326055622688401</v>
       </c>
       <c r="G5">
-        <v>0.2051702680092689</v>
+        <v>0.4045138315167591</v>
       </c>
       <c r="H5">
-        <v>0.1910715043657802</v>
+        <v>0.5712364288630383</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.496380643963505</v>
+        <v>0.4248020524978671</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.834631525207953</v>
+        <v>0.6720747383461969</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7851992466042503</v>
+        <v>1.898127699385157</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.547805593159751</v>
+        <v>1.558885523820265</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1290351360679907</v>
+        <v>0.3204443446752592</v>
       </c>
       <c r="E6">
-        <v>0.2622357967817592</v>
+        <v>0.3229507201525266</v>
       </c>
       <c r="F6">
-        <v>0.2858259244418164</v>
+        <v>0.9333721020665529</v>
       </c>
       <c r="G6">
-        <v>0.2045570854987204</v>
+        <v>0.4047049659075199</v>
       </c>
       <c r="H6">
-        <v>0.1911013625766245</v>
+        <v>0.5715477963576561</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4943194930813632</v>
+        <v>0.4242380351804798</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.821631807278607</v>
+        <v>0.6676910692891624</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7839428126414845</v>
+        <v>1.899170444659504</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.670031102892608</v>
+        <v>1.59816614863297</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1282042733320168</v>
+        <v>0.3194157142090432</v>
       </c>
       <c r="E7">
-        <v>0.2673595547704792</v>
+        <v>0.3239330776909028</v>
       </c>
       <c r="F7">
-        <v>0.2832500852909305</v>
+        <v>0.9281241201257728</v>
       </c>
       <c r="G7">
-        <v>0.2089006391858348</v>
+        <v>0.4034190721970958</v>
       </c>
       <c r="H7">
-        <v>0.1909494908298726</v>
+        <v>0.5694201484056833</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5086609193507599</v>
+        <v>0.4281706509653844</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.911866894505692</v>
+        <v>0.6980935005702804</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7929640831021629</v>
+        <v>1.892088458913889</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.21052401945326</v>
+        <v>1.771188978019666</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1250289634062298</v>
+        <v>0.315236148318121</v>
       </c>
       <c r="E8">
-        <v>0.2906033303117965</v>
+        <v>0.3286362505170359</v>
       </c>
       <c r="F8">
-        <v>0.2752486573953021</v>
+        <v>0.9067663635454721</v>
       </c>
       <c r="G8">
-        <v>0.2303566005029012</v>
+        <v>0.3987568947961293</v>
       </c>
       <c r="H8">
-        <v>0.19170618255351</v>
+        <v>0.5608629587050871</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5728543448912831</v>
+        <v>0.4459593106647048</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.310318567977163</v>
+        <v>0.8316210582425754</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8405886039142842</v>
+        <v>1.864700173703184</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.277897673565406</v>
+        <v>2.1092440944131</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1206349213143412</v>
+        <v>0.3083259704535237</v>
       </c>
       <c r="E9">
-        <v>0.3386987133879202</v>
+        <v>0.3391667999297141</v>
       </c>
       <c r="F9">
-        <v>0.2730937633391406</v>
+        <v>0.8713824610918621</v>
       </c>
       <c r="G9">
-        <v>0.2819545168681401</v>
+        <v>0.3932803373824072</v>
       </c>
       <c r="H9">
-        <v>0.1988994548404293</v>
+        <v>0.547077690442805</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.702507524659751</v>
+        <v>0.4823748098715015</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.094723532876003</v>
+        <v>1.091092868614851</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9660371130613896</v>
+        <v>1.824948853152506</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.070262486645561</v>
+        <v>2.356789285486229</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1185935414086927</v>
+        <v>0.3040273635303237</v>
       </c>
       <c r="E10">
-        <v>0.3758211063542305</v>
+        <v>0.3476885719018128</v>
       </c>
       <c r="F10">
-        <v>0.2812211451043183</v>
+        <v>0.849372320528893</v>
       </c>
       <c r="G10">
-        <v>0.3269882768278336</v>
+        <v>0.3915180854046127</v>
       </c>
       <c r="H10">
-        <v>0.2082557014507671</v>
+        <v>0.5387815414050436</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8006098085564162</v>
+        <v>0.5100404575821074</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.675154016943111</v>
+        <v>1.280211325162043</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.081782233433387</v>
+        <v>1.804321010042287</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.433390129083136</v>
+        <v>2.46921332655586</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1179394605616793</v>
+        <v>0.3022396465021941</v>
       </c>
       <c r="E11">
-        <v>0.3931598486305887</v>
+        <v>0.351733392340094</v>
       </c>
       <c r="F11">
-        <v>0.2873768422196008</v>
+        <v>0.8402301951073881</v>
       </c>
       <c r="G11">
-        <v>0.3493394808852202</v>
+        <v>0.3912131090376505</v>
       </c>
       <c r="H11">
-        <v>0.2135382111501087</v>
+        <v>0.5354064427724126</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8459930844764472</v>
+        <v>0.5228197217598165</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.940666363786193</v>
+        <v>1.365904686705903</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.140527449599091</v>
+        <v>1.796814156620968</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.571361746422554</v>
+        <v>2.511757229355283</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1177327919903419</v>
+        <v>0.3015867133084242</v>
       </c>
       <c r="E12">
-        <v>0.3997962267912101</v>
+        <v>0.3532890322830013</v>
       </c>
       <c r="F12">
-        <v>0.2900931068629546</v>
+        <v>0.8368939147344534</v>
       </c>
       <c r="G12">
-        <v>0.3581002345138842</v>
+        <v>0.3911694920029589</v>
       </c>
       <c r="H12">
-        <v>0.215699038944976</v>
+        <v>0.5341858411503324</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8632996216140043</v>
+        <v>0.5276863748286758</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.041471236181508</v>
+        <v>1.398304589356087</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.163736724919687</v>
+        <v>1.794242571202432</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.541625177561514</v>
+        <v>2.502595943346194</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1177754517052918</v>
+        <v>0.3017262664578055</v>
       </c>
       <c r="E13">
-        <v>0.3983637300057197</v>
+        <v>0.3529529357209213</v>
       </c>
       <c r="F13">
-        <v>0.289490445521615</v>
+        <v>0.8376068467058104</v>
       </c>
       <c r="G13">
-        <v>0.356199766898655</v>
+        <v>0.3911756821184014</v>
       </c>
       <c r="H13">
-        <v>0.2152263135537709</v>
+        <v>0.5344461614426308</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8595667675146501</v>
+        <v>0.5266370418448787</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.019748653578006</v>
+        <v>1.391328956107827</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.158693857849897</v>
+        <v>1.794784331873387</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.444731384672707</v>
+        <v>2.472714024166692</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1179216265179122</v>
+        <v>0.3021854480480286</v>
       </c>
       <c r="E14">
-        <v>0.3937043789539061</v>
+        <v>0.3518608970301003</v>
       </c>
       <c r="F14">
-        <v>0.2875923997285597</v>
+        <v>0.8399531964674551</v>
       </c>
       <c r="G14">
-        <v>0.3500541120744032</v>
+        <v>0.3912080776776321</v>
       </c>
       <c r="H14">
-        <v>0.2137126905326738</v>
+        <v>0.5353048705772494</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8474144075134973</v>
+        <v>0.5232195573307763</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.948954108607495</v>
+        <v>1.36857126456141</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.142417048533872</v>
+        <v>1.796597150663473</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.385443878487365</v>
+        <v>2.454406698280536</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1180165522283829</v>
+        <v>0.3024698377997481</v>
       </c>
       <c r="E15">
-        <v>0.3908597585964557</v>
+        <v>0.3511951044283137</v>
       </c>
       <c r="F15">
-        <v>0.2864809444595267</v>
+        <v>0.8414067802740988</v>
       </c>
       <c r="G15">
-        <v>0.3463292670370492</v>
+        <v>0.391237293875804</v>
       </c>
       <c r="H15">
-        <v>0.2128068485911001</v>
+        <v>0.5358383431823768</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8399868577256484</v>
+        <v>0.5211298067114853</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.905625955953383</v>
+        <v>1.354624917166404</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.132575262195161</v>
+        <v>1.797742895059059</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.046591631491538</v>
+        <v>2.3494382080425</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1186419405057393</v>
+        <v>0.3041475631666728</v>
       </c>
       <c r="E16">
-        <v>0.37469753594781</v>
+        <v>0.3474275981592498</v>
       </c>
       <c r="F16">
-        <v>0.2808709816801169</v>
+        <v>0.8499873358197476</v>
       </c>
       <c r="G16">
-        <v>0.3255675005891732</v>
+        <v>0.3915480492463672</v>
       </c>
       <c r="H16">
-        <v>0.2079322062832603</v>
+        <v>0.5390101483530714</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7976601321918082</v>
+        <v>0.5092091658007405</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.657835902051659</v>
+        <v>1.274604117340743</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.078073024108505</v>
+        <v>1.804849471099885</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.839455844163808</v>
+        <v>2.284994513212268</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1190969717261794</v>
+        <v>0.3052196952787938</v>
       </c>
       <c r="E17">
-        <v>0.3649020478579388</v>
+        <v>0.345159271536815</v>
       </c>
       <c r="F17">
-        <v>0.2780809283507608</v>
+        <v>0.8554745023286401</v>
       </c>
       <c r="G17">
-        <v>0.3133282034509932</v>
+        <v>0.3918662197345242</v>
       </c>
       <c r="H17">
-        <v>0.205213475809245</v>
+        <v>0.5410581910822287</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7718960010001013</v>
+        <v>0.5019455894772733</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.506235459620257</v>
+        <v>1.225426215474329</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.046258257098685</v>
+        <v>1.809690694733547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.720563711143654</v>
+        <v>2.247910858152295</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1193844368815888</v>
+        <v>0.3058521508401455</v>
       </c>
       <c r="E18">
-        <v>0.3593100800604745</v>
+        <v>0.3438704378414883</v>
       </c>
       <c r="F18">
-        <v>0.2767055319221541</v>
+        <v>0.8587124727071824</v>
       </c>
       <c r="G18">
-        <v>0.3064621943294981</v>
+        <v>0.3920959462939209</v>
       </c>
       <c r="H18">
-        <v>0.2037455058633952</v>
+        <v>0.5422737067081869</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7571475249739734</v>
+        <v>0.4977860625912172</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.419174185583984</v>
+        <v>1.197108716461059</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.028527024938342</v>
+        <v>1.812651825375951</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.680349011251508</v>
+        <v>2.235352051136317</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1194861441797386</v>
+        <v>0.306069004574411</v>
       </c>
       <c r="E19">
-        <v>0.3574238095514986</v>
+        <v>0.3434367900510296</v>
       </c>
       <c r="F19">
-        <v>0.2762783142111971</v>
+        <v>0.8598228450599592</v>
       </c>
       <c r="G19">
-        <v>0.3041664805580524</v>
+        <v>0.3921817388129796</v>
       </c>
       <c r="H19">
-        <v>0.2032645495598899</v>
+        <v>0.5426917025490781</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7521656783530091</v>
+        <v>0.4963808743217868</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.389718534917336</v>
+        <v>1.187515513002666</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.022618491130174</v>
+        <v>1.813684705385384</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.861479705463751</v>
+        <v>2.291856464192222</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1190458577974312</v>
+        <v>0.3051039310292509</v>
       </c>
       <c r="E20">
-        <v>0.3659403939654808</v>
+        <v>0.3453991003179482</v>
       </c>
       <c r="F20">
-        <v>0.2783539736843963</v>
+        <v>0.8548819045170717</v>
       </c>
       <c r="G20">
-        <v>0.3146129188634603</v>
+        <v>0.3918275109944744</v>
       </c>
       <c r="H20">
-        <v>0.2054928872648958</v>
+        <v>0.5408362877742974</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.774631269136421</v>
+        <v>0.5027169201102595</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.522359239164075</v>
+        <v>1.23066457782619</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.04958561707889</v>
+        <v>1.809157053360195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.473178216278598</v>
+        <v>2.481491860947699</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1178775653658946</v>
+        <v>0.302049923609566</v>
       </c>
       <c r="E21">
-        <v>0.3950709805006838</v>
+        <v>0.3521810070101949</v>
       </c>
       <c r="F21">
-        <v>0.2881391814924115</v>
+        <v>0.8392606028936953</v>
       </c>
       <c r="G21">
-        <v>0.3518509441423703</v>
+        <v>0.3911966081987401</v>
       </c>
       <c r="H21">
-        <v>0.2141528158128096</v>
+        <v>0.5350510860883304</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8509804671911638</v>
+        <v>0.5242226148667442</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.969740679104632</v>
+        <v>1.375257129640147</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.147171052578528</v>
+        <v>1.796057314760191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.875698918678324</v>
+        <v>2.605261729085385</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1173539040475404</v>
+        <v>0.3001940177069926</v>
       </c>
       <c r="E22">
-        <v>0.4145238477376552</v>
+        <v>0.3567528927414685</v>
       </c>
       <c r="F22">
-        <v>0.2967963889339202</v>
+        <v>0.8297837509997805</v>
       </c>
       <c r="G22">
-        <v>0.3779333290214311</v>
+        <v>0.3912034015905306</v>
       </c>
       <c r="H22">
-        <v>0.220754581014063</v>
+        <v>0.5316051853437926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9015901078536217</v>
+        <v>0.538437458654073</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.263678550915017</v>
+        <v>1.469462660427041</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.216612067268812</v>
+        <v>1.789076594363166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.660587667346874</v>
+        <v>2.539219415189336</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1176109021138387</v>
+        <v>0.3011717612929701</v>
       </c>
       <c r="E23">
-        <v>0.4041015752516941</v>
+        <v>0.3543001020841814</v>
       </c>
       <c r="F23">
-        <v>0.29195775965308</v>
+        <v>0.8347745363259236</v>
       </c>
       <c r="G23">
-        <v>0.3638429124169136</v>
+        <v>0.3911612783350762</v>
       </c>
       <c r="H23">
-        <v>0.2171403716566971</v>
+        <v>0.5334136299353673</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8745094149805936</v>
+        <v>0.5308362777044238</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.10663915767816</v>
+        <v>1.419210877329135</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.179001052242654</v>
+        <v>1.792657303619194</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.851522122470953</v>
+        <v>2.28875428226587</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1190688859660796</v>
+        <v>0.3051562179735896</v>
       </c>
       <c r="E24">
-        <v>0.365470834799936</v>
+        <v>0.3452906261803577</v>
       </c>
       <c r="F24">
-        <v>0.2782298200864091</v>
+        <v>0.8551495584679998</v>
       </c>
       <c r="G24">
-        <v>0.3140315700131424</v>
+        <v>0.3918448654511195</v>
       </c>
       <c r="H24">
-        <v>0.2053662702023757</v>
+        <v>0.5409364916850166</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7733944570113351</v>
+        <v>0.5023681504085005</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.515069383599098</v>
+        <v>1.228296452601739</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.04807958145625</v>
+        <v>1.809397758729261</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.987990549396329</v>
+        <v>2.017931275546175</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1216205506898476</v>
+        <v>0.3100582761664938</v>
       </c>
       <c r="E25">
-        <v>0.3253936173960028</v>
+        <v>0.336179296305481</v>
       </c>
       <c r="F25">
-        <v>0.2720830875596931</v>
+        <v>0.8802564619558169</v>
       </c>
       <c r="G25">
-        <v>0.2668458096671387</v>
+        <v>0.3943666744872232</v>
       </c>
       <c r="H25">
-        <v>0.1962837858549236</v>
+        <v>0.5504856911070277</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6669757653991013</v>
+        <v>0.4723618386709063</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.88197300498382</v>
+        <v>1.021160286872544</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9282685888119317</v>
+        <v>1.83420129516611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.817988034783468</v>
+        <v>3.357352383317732</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.314190933387863</v>
+        <v>0.124290241393723</v>
       </c>
       <c r="E2">
-        <v>0.3299995353571674</v>
+        <v>0.2970627584270673</v>
       </c>
       <c r="F2">
-        <v>0.9014183446607476</v>
+        <v>0.2739460078047884</v>
       </c>
       <c r="G2">
-        <v>0.3977407773541941</v>
+        <v>0.2367687489711017</v>
       </c>
       <c r="H2">
-        <v>0.5587468790071313</v>
+        <v>0.1922770925251882</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4508836976495445</v>
+        <v>0.5904840954053583</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8676421976201993</v>
+        <v>2.418407575549537</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.858221274558872</v>
+        <v>0.8555218540967786</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.682167639189515</v>
+        <v>2.931990149176158</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3173200079630973</v>
+        <v>0.1265699472726709</v>
       </c>
       <c r="E3">
-        <v>0.3261452349320777</v>
+        <v>0.2785131838447086</v>
       </c>
       <c r="F3">
-        <v>0.9174211771114962</v>
+        <v>0.2787130905463648</v>
       </c>
       <c r="G3">
-        <v>0.4009651538374612</v>
+        <v>0.2188603312675994</v>
       </c>
       <c r="H3">
-        <v>0.5651110815936562</v>
+        <v>0.1910391734083561</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4367186947141164</v>
+        <v>0.5396257642959768</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7629942786872732</v>
+        <v>2.10509716995665</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.878068561783067</v>
+        <v>0.8145395170409415</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.598625613031629</v>
+        <v>2.671461764943729</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3194038750344177</v>
+        <v>0.1281948169808089</v>
       </c>
       <c r="E4">
-        <v>0.3239447747195001</v>
+        <v>0.2674198454828272</v>
       </c>
       <c r="F4">
-        <v>0.9280636962225586</v>
+        <v>0.2832217220472266</v>
       </c>
       <c r="G4">
-        <v>0.4034045781797957</v>
+        <v>0.2089526587422625</v>
       </c>
       <c r="H4">
-        <v>0.569395707108761</v>
+        <v>0.1909484686678908</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4282169067764983</v>
+        <v>0.5088292062687856</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6984489051218077</v>
+        <v>1.91292280806374</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.892007701312295</v>
+        <v>0.7930737430355634</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.56454641203635</v>
+        <v>2.565409778732771</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3202940530116862</v>
+        <v>0.1289126126139735</v>
       </c>
       <c r="E5">
-        <v>0.323090093487572</v>
+        <v>0.2629704128428045</v>
       </c>
       <c r="F5">
-        <v>0.9326055622688401</v>
+        <v>0.2854360509232023</v>
       </c>
       <c r="G5">
-        <v>0.4045138315167591</v>
+        <v>0.2051702680092689</v>
       </c>
       <c r="H5">
-        <v>0.5712364288630383</v>
+        <v>0.1910715043656523</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4248020524978671</v>
+        <v>0.4963806439635903</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6720747383461969</v>
+        <v>1.834631525207868</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.898127699385157</v>
+        <v>0.7851992466041651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.558885523820265</v>
+        <v>2.547805593159922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3204443446752592</v>
+        <v>0.1290351360682322</v>
       </c>
       <c r="E6">
-        <v>0.3229507201525266</v>
+        <v>0.2622357967817308</v>
       </c>
       <c r="F6">
-        <v>0.9333721020665529</v>
+        <v>0.285825924441788</v>
       </c>
       <c r="G6">
-        <v>0.4047049659075199</v>
+        <v>0.2045570854987204</v>
       </c>
       <c r="H6">
-        <v>0.5715477963576561</v>
+        <v>0.1911013625766245</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4242380351804798</v>
+        <v>0.4943194930813632</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6676910692891624</v>
+        <v>1.821631807278749</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.899170444659504</v>
+        <v>0.7839428126414276</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.59816614863297</v>
+        <v>2.670031102892608</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3194157142090432</v>
+        <v>0.1282042733321376</v>
       </c>
       <c r="E7">
-        <v>0.3239330776909028</v>
+        <v>0.2673595547704508</v>
       </c>
       <c r="F7">
-        <v>0.9281241201257728</v>
+        <v>0.283250085290959</v>
       </c>
       <c r="G7">
-        <v>0.4034190721970958</v>
+        <v>0.2089006391857211</v>
       </c>
       <c r="H7">
-        <v>0.5694201484056833</v>
+        <v>0.1909494908297589</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4281706509653844</v>
+        <v>0.5086609193506462</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6980935005702804</v>
+        <v>1.911866894505607</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.892088458913889</v>
+        <v>0.7929640831022198</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.771188978019666</v>
+        <v>3.210524019452691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.315236148318121</v>
+        <v>0.125028963406109</v>
       </c>
       <c r="E8">
-        <v>0.3286362505170359</v>
+        <v>0.2906033303117965</v>
       </c>
       <c r="F8">
-        <v>0.9067663635454721</v>
+        <v>0.2752486573953021</v>
       </c>
       <c r="G8">
-        <v>0.3987568947961293</v>
+        <v>0.230356600502887</v>
       </c>
       <c r="H8">
-        <v>0.5608629587050871</v>
+        <v>0.19170618255351</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4459593106647048</v>
+        <v>0.5728543448913399</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8316210582425754</v>
+        <v>2.310318567977305</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.864700173703184</v>
+        <v>0.8405886039143553</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.1092440944131</v>
+        <v>4.277897673565292</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3083259704535237</v>
+        <v>0.1206349213145472</v>
       </c>
       <c r="E9">
-        <v>0.3391667999297141</v>
+        <v>0.3386987133878918</v>
       </c>
       <c r="F9">
-        <v>0.8713824610918621</v>
+        <v>0.2730937633391406</v>
       </c>
       <c r="G9">
-        <v>0.3932803373824072</v>
+        <v>0.2819545168681401</v>
       </c>
       <c r="H9">
-        <v>0.547077690442805</v>
+        <v>0.1988994548404293</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4823748098715015</v>
+        <v>0.7025075246597368</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.091092868614851</v>
+        <v>3.094723532876003</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.824948853152506</v>
+        <v>0.9660371130613896</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.356789285486229</v>
+        <v>5.070262486645788</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3040273635303237</v>
+        <v>0.1185935414087993</v>
       </c>
       <c r="E10">
-        <v>0.3476885719018128</v>
+        <v>0.3758211063542518</v>
       </c>
       <c r="F10">
-        <v>0.849372320528893</v>
+        <v>0.2812211451043254</v>
       </c>
       <c r="G10">
-        <v>0.3915180854046127</v>
+        <v>0.3269882768278194</v>
       </c>
       <c r="H10">
-        <v>0.5387815414050436</v>
+        <v>0.2082557014507671</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5100404575821074</v>
+        <v>0.8006098085565583</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.280211325162043</v>
+        <v>3.675154016942997</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.804321010042287</v>
+        <v>1.081782233433245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.46921332655586</v>
+        <v>5.433390129083421</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3022396465021941</v>
+        <v>0.1179394605615585</v>
       </c>
       <c r="E11">
-        <v>0.351733392340094</v>
+        <v>0.3931598486306171</v>
       </c>
       <c r="F11">
-        <v>0.8402301951073881</v>
+        <v>0.2873768422196008</v>
       </c>
       <c r="G11">
-        <v>0.3912131090376505</v>
+        <v>0.3493394808852202</v>
       </c>
       <c r="H11">
-        <v>0.5354064427724126</v>
+        <v>0.2135382111502224</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5228197217598165</v>
+        <v>0.8459930844764472</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.365904686705903</v>
+        <v>3.940666363786193</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.796814156620968</v>
+        <v>1.140527449599034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.511757229355283</v>
+        <v>5.571361746422554</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3015867133084242</v>
+        <v>0.1177327919903632</v>
       </c>
       <c r="E12">
-        <v>0.3532890322830013</v>
+        <v>0.3997962267911745</v>
       </c>
       <c r="F12">
-        <v>0.8368939147344534</v>
+        <v>0.2900931068629546</v>
       </c>
       <c r="G12">
-        <v>0.3911694920029589</v>
+        <v>0.3581002345138131</v>
       </c>
       <c r="H12">
-        <v>0.5341858411503324</v>
+        <v>0.215699038944976</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5276863748286758</v>
+        <v>0.8632996216138622</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.398304589356087</v>
+        <v>4.041471236181508</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.794242571202432</v>
+        <v>1.16373672491963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.502595943346194</v>
+        <v>5.541625177561514</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3017262664578055</v>
+        <v>0.1177754517052847</v>
       </c>
       <c r="E13">
-        <v>0.3529529357209213</v>
+        <v>0.3983637300057197</v>
       </c>
       <c r="F13">
-        <v>0.8376068467058104</v>
+        <v>0.2894904455216221</v>
       </c>
       <c r="G13">
-        <v>0.3911756821184014</v>
+        <v>0.3561997668985981</v>
       </c>
       <c r="H13">
-        <v>0.5344461614426308</v>
+        <v>0.2152263135537567</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5266370418448787</v>
+        <v>0.8595667675145648</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.391328956107827</v>
+        <v>4.01974865357812</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.794784331873387</v>
+        <v>1.158693857849897</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.472714024166692</v>
+        <v>5.444731384673275</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3021854480480286</v>
+        <v>0.1179216265178411</v>
       </c>
       <c r="E14">
-        <v>0.3518608970301003</v>
+        <v>0.393704378953899</v>
       </c>
       <c r="F14">
-        <v>0.8399531964674551</v>
+        <v>0.2875923997285739</v>
       </c>
       <c r="G14">
-        <v>0.3912080776776321</v>
+        <v>0.3500541120744316</v>
       </c>
       <c r="H14">
-        <v>0.5353048705772494</v>
+        <v>0.2137126905326738</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5232195573307763</v>
+        <v>0.8474144075134404</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.36857126456141</v>
+        <v>3.948954108607495</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.796597150663473</v>
+        <v>1.142417048533815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.454406698280536</v>
+        <v>5.38544387848782</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3024698377997481</v>
+        <v>0.1180165522282692</v>
       </c>
       <c r="E15">
-        <v>0.3511951044283137</v>
+        <v>0.3908597585964486</v>
       </c>
       <c r="F15">
-        <v>0.8414067802740988</v>
+        <v>0.2864809444595338</v>
       </c>
       <c r="G15">
-        <v>0.391237293875804</v>
+        <v>0.3463292670370492</v>
       </c>
       <c r="H15">
-        <v>0.5358383431823768</v>
+        <v>0.2128068485911001</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5211298067114853</v>
+        <v>0.8399868577255631</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.354624917166404</v>
+        <v>3.905625955953553</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.797742895059059</v>
+        <v>1.132575262195161</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.3494382080425</v>
+        <v>5.04659163149114</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3041475631666728</v>
+        <v>0.1186419405057606</v>
       </c>
       <c r="E16">
-        <v>0.3474275981592498</v>
+        <v>0.3746975359478242</v>
       </c>
       <c r="F16">
-        <v>0.8499873358197476</v>
+        <v>0.2808709816801169</v>
       </c>
       <c r="G16">
-        <v>0.3915480492463672</v>
+        <v>0.325567500589159</v>
       </c>
       <c r="H16">
-        <v>0.5390101483530714</v>
+        <v>0.2079322062832745</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5092091658007405</v>
+        <v>0.7976601321919645</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.274604117340743</v>
+        <v>3.657835902051602</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.804849471099885</v>
+        <v>1.078073024108534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.284994513212268</v>
+        <v>4.83945584416324</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3052196952787938</v>
+        <v>0.1190969717260231</v>
       </c>
       <c r="E17">
-        <v>0.345159271536815</v>
+        <v>0.3649020478579459</v>
       </c>
       <c r="F17">
-        <v>0.8554745023286401</v>
+        <v>0.278080928350775</v>
       </c>
       <c r="G17">
-        <v>0.3918662197345242</v>
+        <v>0.3133282034509932</v>
       </c>
       <c r="H17">
-        <v>0.5410581910822287</v>
+        <v>0.2052134758093729</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5019455894772733</v>
+        <v>0.7718960010001581</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.225426215474329</v>
+        <v>3.506235459620427</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.809690694733547</v>
+        <v>1.046258257098771</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.247910858152295</v>
+        <v>4.720563711143427</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3058521508401455</v>
+        <v>0.1193844368814752</v>
       </c>
       <c r="E18">
-        <v>0.3438704378414883</v>
+        <v>0.3593100800604745</v>
       </c>
       <c r="F18">
-        <v>0.8587124727071824</v>
+        <v>0.2767055319221683</v>
       </c>
       <c r="G18">
-        <v>0.3920959462939209</v>
+        <v>0.3064621943294981</v>
       </c>
       <c r="H18">
-        <v>0.5422737067081869</v>
+        <v>0.2037455058633952</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4977860625912172</v>
+        <v>0.7571475249738313</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.197108716461059</v>
+        <v>3.419174185584041</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.812651825375951</v>
+        <v>1.028527024938342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.235352051136317</v>
+        <v>4.680349011251508</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.306069004574411</v>
+        <v>0.1194861441796675</v>
       </c>
       <c r="E19">
-        <v>0.3434367900510296</v>
+        <v>0.3574238095514986</v>
       </c>
       <c r="F19">
-        <v>0.8598228450599592</v>
+        <v>0.2762783142112042</v>
       </c>
       <c r="G19">
-        <v>0.3921817388129796</v>
+        <v>0.3041664805579956</v>
       </c>
       <c r="H19">
-        <v>0.5426917025490781</v>
+        <v>0.2032645495600036</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4963808743217868</v>
+        <v>0.7521656783531654</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.187515513002666</v>
+        <v>3.389718534917506</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.813684705385384</v>
+        <v>1.022618491130117</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.291856464192222</v>
+        <v>4.86147970546358</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3051039310292509</v>
+        <v>0.1190458577975377</v>
       </c>
       <c r="E20">
-        <v>0.3453991003179482</v>
+        <v>0.365940393965495</v>
       </c>
       <c r="F20">
-        <v>0.8548819045170717</v>
+        <v>0.2783539736843821</v>
       </c>
       <c r="G20">
-        <v>0.3918275109944744</v>
+        <v>0.3146129188634603</v>
       </c>
       <c r="H20">
-        <v>0.5408362877742974</v>
+        <v>0.2054928872648958</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5027169201102595</v>
+        <v>0.7746312691364494</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.23066457782619</v>
+        <v>3.522359239164132</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.809157053360195</v>
+        <v>1.04958561707889</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.481491860947699</v>
+        <v>5.473178216278939</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.302049923609566</v>
+        <v>0.117877565365589</v>
       </c>
       <c r="E21">
-        <v>0.3521810070101949</v>
+        <v>0.3950709805006909</v>
       </c>
       <c r="F21">
-        <v>0.8392606028936953</v>
+        <v>0.2881391814924115</v>
       </c>
       <c r="G21">
-        <v>0.3911966081987401</v>
+        <v>0.3518509441424555</v>
       </c>
       <c r="H21">
-        <v>0.5350510860883304</v>
+        <v>0.214152815812696</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5242226148667442</v>
+        <v>0.8509804671912207</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.375257129640147</v>
+        <v>3.969740679104632</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.796057314760191</v>
+        <v>1.147171052578528</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.605261729085385</v>
+        <v>5.875698918678324</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3001940177069926</v>
+        <v>0.1173539040474978</v>
       </c>
       <c r="E22">
-        <v>0.3567528927414685</v>
+        <v>0.4145238477376623</v>
       </c>
       <c r="F22">
-        <v>0.8297837509997805</v>
+        <v>0.2967963889339202</v>
       </c>
       <c r="G22">
-        <v>0.3912034015905306</v>
+        <v>0.3779333290214311</v>
       </c>
       <c r="H22">
-        <v>0.5316051853437926</v>
+        <v>0.220754581014063</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.538437458654073</v>
+        <v>0.9015901078537638</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.469462660427041</v>
+        <v>4.263678550915131</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.789076594363166</v>
+        <v>1.216612067268841</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.539219415189336</v>
+        <v>5.660587667346363</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3011717612929701</v>
+        <v>0.1176109021137322</v>
       </c>
       <c r="E23">
-        <v>0.3543001020841814</v>
+        <v>0.4041015752516799</v>
       </c>
       <c r="F23">
-        <v>0.8347745363259236</v>
+        <v>0.29195775965308</v>
       </c>
       <c r="G23">
-        <v>0.3911612783350762</v>
+        <v>0.3638429124168283</v>
       </c>
       <c r="H23">
-        <v>0.5334136299353673</v>
+        <v>0.2171403716565834</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5308362777044238</v>
+        <v>0.8745094149804515</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.419210877329135</v>
+        <v>4.106639157678103</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.792657303619194</v>
+        <v>1.179001052242569</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.28875428226587</v>
+        <v>4.851522122471067</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3051562179735896</v>
+        <v>0.119068885965973</v>
       </c>
       <c r="E24">
-        <v>0.3452906261803577</v>
+        <v>0.3654708347999218</v>
       </c>
       <c r="F24">
-        <v>0.8551495584679998</v>
+        <v>0.2782298200864233</v>
       </c>
       <c r="G24">
-        <v>0.3918448654511195</v>
+        <v>0.3140315700131282</v>
       </c>
       <c r="H24">
-        <v>0.5409364916850166</v>
+        <v>0.2053662702023757</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5023681504085005</v>
+        <v>0.773394457011392</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.228296452601739</v>
+        <v>3.515069383599098</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.809397758729261</v>
+        <v>1.04807958145625</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.017931275546175</v>
+        <v>3.987990549396102</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3100582761664938</v>
+        <v>0.1216205506898049</v>
       </c>
       <c r="E25">
-        <v>0.336179296305481</v>
+        <v>0.325393617396017</v>
       </c>
       <c r="F25">
-        <v>0.8802564619558169</v>
+        <v>0.2720830875596647</v>
       </c>
       <c r="G25">
-        <v>0.3943666744872232</v>
+        <v>0.2668458096671884</v>
       </c>
       <c r="H25">
-        <v>0.5504856911070277</v>
+        <v>0.1962837858549307</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4723618386709063</v>
+        <v>0.6669757653991013</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.021160286872544</v>
+        <v>2.881973004983763</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.83420129516611</v>
+        <v>0.9282685888119033</v>
       </c>
     </row>
   </sheetData>
